--- a/結合テスト.xlsx
+++ b/結合テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanaka\Documents\media-scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAEC582-BACC-42EF-9C2B-3569EEB4C9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DD97C5-1814-4285-8E69-B37A4329BC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="5" activeTab="5" xr2:uid="{20384A3D-E88E-4DB4-9255-DCF924B261BE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="153">
   <si>
     <t>テストケースID</t>
   </si>
@@ -72,19 +72,12 @@
     <t>環境</t>
   </si>
   <si>
-    <t>TC-IT001</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ユーザー登録・ログイン成功フロー</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>正常にユーザー登録、ログインが完了し、マイページに遷移する</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TC-IT002</t>
   </si>
   <si>
     <t>画面</t>
@@ -105,9 +98,6 @@
     <t>入力不足のため、「メールアドレスは必須です」などの
 エラーメッセージが表示され、登録処理が実行されない</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TC-IT003</t>
   </si>
   <si>
     <t>ユーザー登録（重複チェック）</t>
@@ -137,9 +127,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>TC-IT004</t>
-  </si>
-  <si>
     <t>ユーザー認証</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -153,9 +140,6 @@
     <t>「メールアドレスまたはパスワードが正しくありません」といった
 エラーメッセージが表示され、ログインが拒否される</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TC-IT005</t>
   </si>
   <si>
     <t>ホーム画面 → アカウント登録画面 → マイページ</t>
@@ -209,9 +193,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>TC-IT006</t>
-  </si>
-  <si>
     <t>マイページ → 設定画面</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -239,9 +220,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>TC-IT007</t>
-  </si>
-  <si>
     <t>設定画面</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -263,10 +241,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>TC-IT008</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>作品検索画面</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -281,9 +255,6 @@
     <t>「Spider」に該当する作品のポスター、
 タイトル、公開日などが正しく表示される</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TC-IT009</t>
   </si>
   <si>
     <t>作品検索（検索結果がゼロの場合）</t>
@@ -327,14 +298,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>TC-IT010</t>
-  </si>
-  <si>
     <t>作品詳細情報の表示</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TC-IT011</t>
   </si>
   <si>
     <t>作品検索画面または作品詳細画面</t>
@@ -355,9 +320,6 @@
     <t>外部APIからのエラーが正しくハンドリングされ、
 ユーザーにエラーメッセージが表示される</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TC-IT012</t>
   </si>
   <si>
     <t>作品詳細画面 → マイページ（スケジュール管理画面）</t>
@@ -392,9 +354,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>TC-IT013</t>
-  </si>
-  <si>
     <t>作品詳細画面</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -402,9 +361,6 @@
     <t>1.ログインしていない状態でブラウザに直接作品詳細ページのURLを入力する
 2.作品詳細画面を表示する</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TC-IT014</t>
   </si>
   <si>
     <t>1.ログイン状態で作品詳細画面にアクセスする
@@ -418,9 +374,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>TC-IT015</t>
-  </si>
-  <si>
     <t>スケジュール管理画面</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -440,10 +393,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>TC-IT016</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>作品詳細画面 → レビュー一覧画面</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -461,9 +410,6 @@
   <si>
     <t>レビュー一覧画面に正しいレビュー情報が表示される</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TC-IT017</t>
   </si>
   <si>
     <t>レビュー投稿画面 → レビュー一覧画面</t>
@@ -514,13 +460,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>TC-IT019</t>
-  </si>
-  <si>
-    <t>TC-IT018</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>レビュー集計・平均評価算出</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -537,10 +476,6 @@
   </si>
   <si>
     <t>レビューランキング画面</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TC-IT020</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -575,13 +510,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>TC-IT022</t>
-  </si>
-  <si>
-    <t>TC-IT021</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>外部API呼び出し時のエラーハンドリング</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -595,9 +523,6 @@
     <t>タイムアウト時に適切なエラーメッセージが表示され、
 ユーザーに通知される</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TC-IT023</t>
   </si>
   <si>
     <t>作品詳細画面またはスケジュール登録処理中</t>
@@ -620,14 +545,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>TC-IT027</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TC-IT024</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>複数画面間（例：作品検索 → 作品詳細 → マイページ）</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -648,9 +565,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>TC-IT025</t>
-  </si>
-  <si>
     <t>任意の認証状態画面（例：マイページ、レビュー一覧画面）</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -668,9 +582,6 @@
   <si>
     <t>リロード後も状態が保持され、正しいデータが表示される</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TC-IT026</t>
   </si>
   <si>
     <t>ナビゲーションバー（ホーム画面、作品検索、マイページ、設定など）</t>
@@ -706,49 +617,169 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>非認証ユーザーは保護ページにアクセスできず、
+ログイン画面へリダイレクトされる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力バリデーション／エラーハンドリング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ブラウザのURLバーに、存在しないまたは不正な値を含むURL（例：/media/invalid/12345）を直接入力する
+2.システムがURLパラメータを検証し、「無効な作品IDです」または「指定された作品が見つかりませんでした」といったエラーメッセージを表示することを確認する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不正なパラメータの場合、適切なエラーメッセージが表示される</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者専用画面（例：ユーザー管理、レビュー管理など）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非管理者の場合はアクセスが拒否され、
+管理者の場合のみ画面にアクセス可能となる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー情報更新（入力バリデーション）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン状態で設定画面にアクセスする
+2.メールアドレス欄に不正な形式（例："invalidemail"）を入力する
+3.他の必須項目には有効な値を入力する
+4.「更新」ボタンをクリックする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力バリデーションにより「正しいメールアドレスを入力してください」といったエラーメッセージが表示され、更新処理が実行されない</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC-A001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC-A002</t>
+  </si>
+  <si>
+    <t>TC-A003</t>
+  </si>
+  <si>
+    <t>TC-A004</t>
+  </si>
+  <si>
+    <t>TC-A005</t>
+  </si>
+  <si>
+    <t>TC-A006</t>
+  </si>
+  <si>
+    <t>TC-A007</t>
+  </si>
+  <si>
+    <t>TC-A008</t>
+  </si>
+  <si>
+    <t>TC-B001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC-B002</t>
+  </si>
+  <si>
+    <t>TC-B003</t>
+  </si>
+  <si>
+    <t>TC-B004</t>
+  </si>
+  <si>
+    <t>TC-B005</t>
+  </si>
+  <si>
+    <t>TC-B006</t>
+  </si>
+  <si>
+    <t>TC-B007</t>
+  </si>
+  <si>
+    <t>TC-B008</t>
+  </si>
+  <si>
+    <t>TC-C001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC-C002</t>
+  </si>
+  <si>
+    <t>TC-C003</t>
+  </si>
+  <si>
+    <t>TC-C004</t>
+  </si>
+  <si>
+    <t>TC-D001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC-D002</t>
+  </si>
+  <si>
+    <t>TC-D003</t>
+  </si>
+  <si>
+    <t>TC-D004</t>
+  </si>
+  <si>
+    <t>TC-E001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC-E002</t>
+  </si>
+  <si>
+    <t>TC-E003</t>
+  </si>
+  <si>
+    <t>TC-F001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC-F002</t>
+  </si>
+  <si>
+    <t>TC-F003</t>
+  </si>
+  <si>
+    <t>Windows11 / Chrome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>1.ブラウザのURLバーに、ログインが必要なページ
 （例：/mypage）を直接入力する
-2.システムがアクセス制御を実施し、ログイン画面にリダイレクトされるか、またはエラーメッセージが表示されることを確認する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>非認証ユーザーは保護ページにアクセスできず、
-ログイン画面へリダイレクトされる</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TC-IT028</t>
-  </si>
-  <si>
-    <t>入力バリデーション／エラーハンドリング</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.ブラウザのURLバーに、存在しないまたは不正な値を含むURL（例：/media/invalid/12345）を直接入力する
-2.システムがURLパラメータを検証し、「無効な作品IDです」または「指定された作品が見つかりませんでした」といったエラーメッセージを表示することを確認する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>不正なパラメータの場合、適切なエラーメッセージが表示される</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TC-IT029</t>
-  </si>
-  <si>
-    <t>管理者専用画面（例：ユーザー管理、レビュー管理など）</t>
+2.システムがアクセス制御を実施し、ログイン画面にリダイレクトされる</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1.一般ユーザーとしてログインする
 2.管理者専用のURL（例：/admin/users）を直接入力する
-3.システムがアクセスを拒否し、エラーメッセージを表示するか、またはトップページなどにリダイレクトされることを確認する
+3.システムがアクセスを拒否し、トップページなどにリダイレクトされることを確認する
 4.次に、管理者ユーザーとしてログインし、同じ操作を実施して、対象画面に正しくアクセスできることを確認する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>非管理者の場合はアクセスが拒否され、
-管理者の場合のみ画面にアクセス可能となる</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -825,7 +856,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -835,8 +866,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1152,19 +1189,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BA95B4-0D6C-41C7-888C-F059AD14387C}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="E7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.296875" customWidth="1"/>
-    <col min="2" max="2" width="41.19921875" customWidth="1"/>
-    <col min="3" max="3" width="29.8984375" customWidth="1"/>
+    <col min="2" max="2" width="43.296875" customWidth="1"/>
+    <col min="3" max="3" width="36.796875" customWidth="1"/>
     <col min="4" max="4" width="67.8984375" customWidth="1"/>
     <col min="5" max="5" width="67.296875" customWidth="1"/>
+    <col min="10" max="10" width="22.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
@@ -1172,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1201,121 +1239,234 @@
     </row>
     <row r="2" spans="1:10" ht="54" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
+      <c r="F2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="72" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
+      <c r="F3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="54" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
+      <c r="F4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="54" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
+      <c r="F5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="72" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>33</v>
+      <c r="F6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="126" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="108" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1328,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D1940B-0CAF-48B4-90EF-663C30509E70}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1339,6 +1490,7 @@
     <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="70.59765625" customWidth="1"/>
     <col min="5" max="5" width="48.69921875" customWidth="1"/>
+    <col min="10" max="10" width="20.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
@@ -1346,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1375,138 +1527,234 @@
     </row>
     <row r="2" spans="1:10" ht="108" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="90" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="108" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
         <v>44</v>
       </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="90" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="108" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="126" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="108" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>62</v>
+      <c r="F5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="90" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1519,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F48CEA-B25A-44D5-AAFF-C5F3732C0FED}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="D1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1530,6 +1778,7 @@
     <col min="3" max="3" width="32.09765625" customWidth="1"/>
     <col min="4" max="4" width="80.69921875" customWidth="1"/>
     <col min="5" max="5" width="51.796875" customWidth="1"/>
+    <col min="10" max="10" width="21.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
@@ -1537,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1564,72 +1813,120 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="108" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="72" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="90" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="72" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>73</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="72" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="72" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>99</v>
+        <v>80</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1642,8 +1939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82294707-45A0-4137-9503-7F61FDEA9E75}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1652,7 +1949,8 @@
     <col min="2" max="2" width="36.5" customWidth="1"/>
     <col min="3" max="3" width="43.8984375" customWidth="1"/>
     <col min="4" max="4" width="64.59765625" customWidth="1"/>
-    <col min="5" max="5" width="49.296875" customWidth="1"/>
+    <col min="5" max="5" width="51.296875" customWidth="1"/>
+    <col min="10" max="10" width="22.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
@@ -1660,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1689,70 +1987,118 @@
     </row>
     <row r="2" spans="1:10" ht="90" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>84</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="90" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="72" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="90" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1765,8 +2111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA10A62B-131C-48DC-ACD8-A5A76C945484}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="D1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1776,6 +2122,7 @@
     <col min="3" max="3" width="34.09765625" customWidth="1"/>
     <col min="4" max="4" width="77.19921875" customWidth="1"/>
     <col min="5" max="5" width="52.796875" customWidth="1"/>
+    <col min="10" max="10" width="21.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
@@ -1783,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1810,55 +2157,91 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="144" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="90" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="108" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="72" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>106</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1871,8 +2254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28482C8D-A27B-41E0-A5E3-B0893ED058B9}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1882,6 +2265,7 @@
     <col min="3" max="3" width="37" customWidth="1"/>
     <col min="4" max="4" width="61.69921875" customWidth="1"/>
     <col min="5" max="5" width="55.09765625" customWidth="1"/>
+    <col min="10" max="10" width="21.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
@@ -1889,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1916,55 +2300,91 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="72" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="54" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>137</v>
+        <v>109</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="90" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>112</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="108" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>145</v>
+        <v>114</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="5">
+        <v>45697</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
